--- a/project_yelp_recommendation/tables_4_presentation.xlsx
+++ b/project_yelp_recommendation/tables_4_presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i505690/Documents/script-migration/my-pps/yelp-data-analysis/project_yelp_recommendation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOEN_499 Project\yelp-data-analysis\project_yelp_recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721EE05A-E3F2-5F4B-905C-88840ED657A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32252355-72F2-48A4-AF56-A38C2FDBE1EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
+    <workbookView xWindow="1332" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Dataset introduction</t>
   </si>
@@ -52,14 +51,94 @@
   </si>
   <si>
     <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Number of business</t>
+  </si>
+  <si>
+    <t>Number of review</t>
+  </si>
+  <si>
+    <t>Number of user</t>
+  </si>
+  <si>
+    <t>Number of business that chosen user have review</t>
+  </si>
+  <si>
+    <t>Chosen user id</t>
+  </si>
+  <si>
+    <t>tWBLn4k1M7PLBtAtwAg73g</t>
+  </si>
+  <si>
+    <t>Number of canadian business</t>
+  </si>
+  <si>
+    <t>Number of canadian business review</t>
+  </si>
+  <si>
+    <t>when distance = 3km and rank = 70</t>
+  </si>
+  <si>
+    <t>basic als recommender rmse</t>
+  </si>
+  <si>
+    <t>global average recommender rmse</t>
+  </si>
+  <si>
+    <t>als with bias recommender rmse</t>
+  </si>
+  <si>
+    <t>when distance = 5km and rank = 70</t>
+  </si>
+  <si>
+    <t>when distance = 10km and rank = 70</t>
+  </si>
+  <si>
+    <t>Explaination</t>
+  </si>
+  <si>
+    <t>FP-Growth frequent itemsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Support and confidence &gt; 0.1 </t>
+  </si>
+  <si>
+    <t>(empty return)</t>
+  </si>
+  <si>
+    <t>basic als recommender mae</t>
+  </si>
+  <si>
+    <t>global average recommender mae</t>
+  </si>
+  <si>
+    <t>als with bias recommender mae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After observing the result, it is clear that something went wrong in either the algorithm or the dataset we used. After careful review of the algorithm with different dataset, we could find nothing that is responsible for the result. Hence, we start to suspect our dataset </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we proceed to continue trying FP-growth at min support and confidence at 0.5. However, it return empty df. Hence, we keep on lowering min s and min c until 0.1. At this point, we highly suspect that our dataset suffers from data spareness. So we try lower to 0. Unfortunately, after waiting for 15 minutes with my CPU working at 100% most of the time, it still not give back result so I stop it</t>
+  </si>
+  <si>
+    <t>From this, we tried to look for others who work on the same dataset who also use collab filtering like us and we found one. Perhaps lucky for us, the paper from Standford University has the same conclusion as us that the Yelp dataset suffers from data spareness.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,8 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,55 +487,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291F1A05-E2B6-9741-AF08-E9AB101E6CC1}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.09765625" customWidth="1"/>
+    <col min="7" max="7" width="26.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>192609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>6685900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1637138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -459,23 +570,203 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>50644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>1063142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>2.1273911749069598</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>1.4353005646714201</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>3.04248907601897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>1.7221782768440601</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>1.2425122982974599</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>2.55470156320228</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>2.1478470949668198</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>1.4353005646714201</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>3.02685856977986</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>1.7175697991586001</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>1.2425122982974599</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>2.5896254470859699</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>1.85259797843684</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>1.3290577867732001</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>3.3228521622487501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project_yelp_recommendation/tables_4_presentation.xlsx
+++ b/project_yelp_recommendation/tables_4_presentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOEN_499 Project\yelp-data-analysis\project_yelp_recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32252355-72F2-48A4-AF56-A38C2FDBE1EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B55A5D-1722-4BC4-B5C5-CFA683E4F5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
+    <workbookView xWindow="2280" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>Dataset introduction</t>
   </si>
@@ -123,13 +123,43 @@
   </si>
   <si>
     <t>From this, we tried to look for others who work on the same dataset who also use collab filtering like us and we found one. Perhaps lucky for us, the paper from Standford University has the same conclusion as us that the Yelp dataset suffers from data spareness.</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>3. Based on reviews made by the chosen one, we sort out what city those reviews were made from and assume it is the city where the user is living</t>
+  </si>
+  <si>
+    <t>1. Sort for top 100 most review users in Canada , then we take 5 randoms users in that list</t>
+  </si>
+  <si>
+    <t>2. We choose 1 out of the 5 users, for example, user tWBLn4k1M7PLBtAtwAg73g</t>
+  </si>
+  <si>
+    <t>4. We sort out the top 5 postal codes in that city where most reviews were written and prompt users to put in the postal code he/she want to search for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Display all postal codes within 3 km </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Use pyspark ml als library to do recommendation, sort out top 10 predicted highest rate restaurants </t>
+  </si>
+  <si>
+    <t>7. Prompt user to select one restaurant</t>
+  </si>
+  <si>
+    <t>8. Use FP-Growth library in pyspark to do frequent itemset, prompt out top 1 most frequent itemset</t>
+  </si>
+  <si>
+    <t>4. We sort out the top 5 postal codes in that city where most reviews were written and prompt users to put in the postal code he/she want to search for, for example M8X 1E9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,13 +175,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,18 +205,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291F1A05-E2B6-9741-AF08-E9AB101E6CC1}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -765,6 +810,51 @@
         <v>3.3228521622487501</v>
       </c>
     </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project_yelp_recommendation/tables_4_presentation.xlsx
+++ b/project_yelp_recommendation/tables_4_presentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOEN_499 Project\yelp-data-analysis\project_yelp_recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B55A5D-1722-4BC4-B5C5-CFA683E4F5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51E2AD-B76D-4FBE-A0C9-3F4759241CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
+    <workbookView xWindow="4176" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Dataset introduction</t>
   </si>
@@ -137,9 +137,6 @@
     <t>2. We choose 1 out of the 5 users, for example, user tWBLn4k1M7PLBtAtwAg73g</t>
   </si>
   <si>
-    <t>4. We sort out the top 5 postal codes in that city where most reviews were written and prompt users to put in the postal code he/she want to search for</t>
-  </si>
-  <si>
     <t xml:space="preserve">5. Display all postal codes within 3 km </t>
   </si>
   <si>
@@ -153,6 +150,24 @@
   </si>
   <si>
     <t>4. We sort out the top 5 postal codes in that city where most reviews were written and prompt users to put in the postal code he/she want to search for, for example M8X 1E9</t>
+  </si>
+  <si>
+    <t>we soon realized that our dataset sufered from a sparseness problem.</t>
+  </si>
+  <si>
+    <t>1. 65yB0ydGXOZ_-T6J_GbKfw</t>
+  </si>
+  <si>
+    <t>2. jnB_saJqNfOmVoCWquhAzg</t>
+  </si>
+  <si>
+    <t>3. iRQ_YKpCBdaCwvc2X8_3NQ</t>
+  </si>
+  <si>
+    <t>4. gwIqbXEXijQNgdESVc07hg</t>
+  </si>
+  <si>
+    <t>5. Wu0yySWcHQ5tZ_59HNiamg</t>
   </si>
 </sst>
 </file>
@@ -532,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291F1A05-E2B6-9741-AF08-E9AB101E6CC1}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -564,6 +579,9 @@
       <c r="G2">
         <v>192609</v>
       </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -592,6 +610,9 @@
       <c r="G4">
         <v>1637138</v>
       </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -614,6 +635,9 @@
       <c r="C6">
         <v>0.5</v>
       </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -642,6 +666,9 @@
       <c r="G8">
         <v>50644</v>
       </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
@@ -649,6 +676,11 @@
       </c>
       <c r="G9">
         <v>1063142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -810,49 +842,81 @@
         <v>3.3228521622487501</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>1.46020604682722</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>1.11201958416692</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>2.9233187578841</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/project_yelp_recommendation/tables_4_presentation.xlsx
+++ b/project_yelp_recommendation/tables_4_presentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOEN_499 Project\yelp-data-analysis\project_yelp_recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51E2AD-B76D-4FBE-A0C9-3F4759241CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38819CCB-4599-4A7A-ADD6-01951FC12E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
+    <workbookView xWindow="5124" yWindow="456" windowWidth="28044" windowHeight="16584" xr2:uid="{17D7A015-5916-8846-B6E5-58D3E7395B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Dataset introduction</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>5. Wu0yySWcHQ5tZ_59HNiamg</t>
+  </si>
+  <si>
+    <t>1. M8X 1E9</t>
+  </si>
+  <si>
+    <t>2. M5A 2L2</t>
+  </si>
+  <si>
+    <t>3. M6K 1L4</t>
+  </si>
+  <si>
+    <t>4. 89109</t>
+  </si>
+  <si>
+    <t>5. M6K</t>
   </si>
 </sst>
 </file>
@@ -549,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291F1A05-E2B6-9741-AF08-E9AB101E6CC1}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -744,7 +759,10 @@
         <v>1.7221782768440601</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
@@ -752,7 +770,7 @@
         <v>1.2425122982974599</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>27</v>
       </c>
@@ -760,12 +778,20 @@
         <v>2.55470156320228</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
@@ -773,7 +799,7 @@
         <v>2.1478470949668198</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>17</v>
       </c>
@@ -781,7 +807,10 @@
         <v>1.4353005646714201</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
@@ -789,7 +818,10 @@
         <v>3.02685856977986</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
@@ -797,7 +829,7 @@
         <v>1.7175697991586001</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>26</v>
       </c>
@@ -805,7 +837,7 @@
         <v>1.2425122982974599</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>27</v>
       </c>
@@ -813,12 +845,12 @@
         <v>2.5896254470859699</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>16</v>
       </c>
@@ -826,7 +858,7 @@
         <v>1.85259797843684</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>17</v>
       </c>
@@ -834,7 +866,7 @@
         <v>1.3290577867732001</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>18</v>
       </c>
